--- a/Code/Results/Cases/Case_2_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002976754185301</v>
+        <v>1.025074769481775</v>
       </c>
       <c r="D2">
-        <v>1.019798520316684</v>
+        <v>1.029645892457879</v>
       </c>
       <c r="E2">
-        <v>1.00750475666552</v>
+        <v>1.048426207647521</v>
       </c>
       <c r="F2">
-        <v>1.011309168879734</v>
+        <v>1.052710654235002</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044799927320283</v>
+        <v>1.033204400483247</v>
       </c>
       <c r="J2">
-        <v>1.02506879412379</v>
+        <v>1.030245821730994</v>
       </c>
       <c r="K2">
-        <v>1.030988752523991</v>
+        <v>1.032459200633997</v>
       </c>
       <c r="L2">
-        <v>1.018860519135699</v>
+        <v>1.051186085976613</v>
       </c>
       <c r="M2">
-        <v>1.02261316570875</v>
+        <v>1.055458632899228</v>
       </c>
       <c r="N2">
-        <v>1.0123959133237</v>
+        <v>1.014145006689361</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006608204173495</v>
+        <v>1.02582287612453</v>
       </c>
       <c r="D3">
-        <v>1.022350452874014</v>
+        <v>1.030185288529728</v>
       </c>
       <c r="E3">
-        <v>1.012676381167174</v>
+        <v>1.049607812508344</v>
       </c>
       <c r="F3">
-        <v>1.016712256853561</v>
+        <v>1.053942035605907</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045831812860045</v>
+        <v>1.03335362063743</v>
       </c>
       <c r="J3">
-        <v>1.026920329710173</v>
+        <v>1.030634147218604</v>
       </c>
       <c r="K3">
-        <v>1.032705124542208</v>
+        <v>1.03280750923893</v>
       </c>
       <c r="L3">
-        <v>1.023149594467394</v>
+        <v>1.0521787776471</v>
       </c>
       <c r="M3">
-        <v>1.027135675256384</v>
+        <v>1.056501841028601</v>
       </c>
       <c r="N3">
-        <v>1.013005700539404</v>
+        <v>1.014272898768009</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008911326709302</v>
+        <v>1.026307101972126</v>
       </c>
       <c r="D4">
-        <v>1.023970440645347</v>
+        <v>1.030534332644254</v>
       </c>
       <c r="E4">
-        <v>1.015958121499472</v>
+        <v>1.050373368525781</v>
       </c>
       <c r="F4">
-        <v>1.020140113127243</v>
+        <v>1.054739769525442</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046474767086311</v>
+        <v>1.033448805515501</v>
       </c>
       <c r="J4">
-        <v>1.028089794471707</v>
+        <v>1.03088488746025</v>
       </c>
       <c r="K4">
-        <v>1.033787921625652</v>
+        <v>1.033032198492007</v>
       </c>
       <c r="L4">
-        <v>1.025867686962046</v>
+        <v>1.052821519744478</v>
       </c>
       <c r="M4">
-        <v>1.030001392732615</v>
+        <v>1.057177249074028</v>
       </c>
       <c r="N4">
-        <v>1.013390886847499</v>
+        <v>1.014355474647787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009868723890436</v>
+        <v>1.02651070513779</v>
       </c>
       <c r="D5">
-        <v>1.02464418669225</v>
+        <v>1.030681073698293</v>
       </c>
       <c r="E5">
-        <v>1.017322927398875</v>
+        <v>1.050695442955047</v>
       </c>
       <c r="F5">
-        <v>1.021565499630098</v>
+        <v>1.055075364121302</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046739249266699</v>
+        <v>1.03348849243943</v>
       </c>
       <c r="J5">
-        <v>1.028574763953922</v>
+        <v>1.030990170258391</v>
       </c>
       <c r="K5">
-        <v>1.034236626537013</v>
+        <v>1.03312649169322</v>
       </c>
       <c r="L5">
-        <v>1.026997206692656</v>
+        <v>1.053091825579523</v>
       </c>
       <c r="M5">
-        <v>1.031192178162175</v>
+        <v>1.057461282410824</v>
       </c>
       <c r="N5">
-        <v>1.013550628346024</v>
+        <v>1.01439014639881</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010028849193894</v>
+        <v>1.026544892991989</v>
       </c>
       <c r="D6">
-        <v>1.024756889158547</v>
+        <v>1.030705712291169</v>
       </c>
       <c r="E6">
-        <v>1.017551232160147</v>
+        <v>1.050749534442044</v>
       </c>
       <c r="F6">
-        <v>1.021803927308831</v>
+        <v>1.055131725267197</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046783318989897</v>
+        <v>1.033495136747623</v>
       </c>
       <c r="J6">
-        <v>1.028655806026542</v>
+        <v>1.031007840146047</v>
       </c>
       <c r="K6">
-        <v>1.034311589089377</v>
+        <v>1.033142314162453</v>
       </c>
       <c r="L6">
-        <v>1.027186100931359</v>
+        <v>1.053137216818687</v>
       </c>
       <c r="M6">
-        <v>1.031391313174856</v>
+        <v>1.057508978246505</v>
       </c>
       <c r="N6">
-        <v>1.013577322763155</v>
+        <v>1.014395965398417</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.00892416163802</v>
+        <v>1.026309822393429</v>
       </c>
       <c r="D7">
-        <v>1.023979471695317</v>
+        <v>1.030536293395981</v>
       </c>
       <c r="E7">
-        <v>1.015976415584231</v>
+        <v>1.050377671177439</v>
       </c>
       <c r="F7">
-        <v>1.020159219982261</v>
+        <v>1.054744252863451</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046478323822343</v>
+        <v>1.033449337106939</v>
       </c>
       <c r="J7">
-        <v>1.028096300655187</v>
+        <v>1.030886294759884</v>
       </c>
       <c r="K7">
-        <v>1.033793942594701</v>
+        <v>1.033033459096591</v>
       </c>
       <c r="L7">
-        <v>1.02588283070895</v>
+        <v>1.052825131202533</v>
       </c>
       <c r="M7">
-        <v>1.030017358211556</v>
+        <v>1.057181043980434</v>
       </c>
       <c r="N7">
-        <v>1.013393029856821</v>
+        <v>1.014355938103386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00421389072824</v>
+        <v>1.025327563500636</v>
       </c>
       <c r="D8">
-        <v>1.020667554063606</v>
+        <v>1.029828179041842</v>
       </c>
       <c r="E8">
-        <v>1.009266312577078</v>
+        <v>1.0488253341346</v>
       </c>
       <c r="F8">
-        <v>1.013149723886858</v>
+        <v>1.053126609284014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045153848352503</v>
+        <v>1.033255113498542</v>
       </c>
       <c r="J8">
-        <v>1.025700559145497</v>
+        <v>1.030377167789422</v>
       </c>
       <c r="K8">
-        <v>1.031574662532159</v>
+        <v>1.032577055339087</v>
       </c>
       <c r="L8">
-        <v>1.020322211835374</v>
+        <v>1.051521487252904</v>
       </c>
       <c r="M8">
-        <v>1.024154471805608</v>
+        <v>1.055811110859174</v>
       </c>
       <c r="N8">
-        <v>1.012603972225951</v>
+        <v>1.014188265247971</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9955403924208528</v>
+        <v>1.023597918595111</v>
       </c>
       <c r="D9">
-        <v>1.014582818108942</v>
+        <v>1.02858060496783</v>
       </c>
       <c r="E9">
-        <v>0.9969165769524392</v>
+        <v>1.046097395926719</v>
       </c>
       <c r="F9">
-        <v>1.000243037243889</v>
+        <v>1.050283358395037</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042625281454182</v>
+        <v>1.032902400335583</v>
       </c>
       <c r="J9">
-        <v>1.021251619789086</v>
+        <v>1.029475986473076</v>
       </c>
       <c r="K9">
-        <v>1.027443648382186</v>
+        <v>1.031767577252818</v>
       </c>
       <c r="L9">
-        <v>1.010059879426281</v>
+        <v>1.049227382747422</v>
       </c>
       <c r="M9">
-        <v>1.013332172568534</v>
+        <v>1.053400035362274</v>
       </c>
       <c r="N9">
-        <v>1.011138977467976</v>
+        <v>1.013891449134885</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9894833223265121</v>
+        <v>1.022445730546922</v>
       </c>
       <c r="D10">
-        <v>1.010345585225987</v>
+        <v>1.027749126812908</v>
       </c>
       <c r="E10">
-        <v>0.9882841512135043</v>
+        <v>1.04428377154272</v>
       </c>
       <c r="F10">
-        <v>0.9912174893105133</v>
+        <v>1.048392703849908</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040800992231963</v>
+        <v>1.03266026185233</v>
       </c>
       <c r="J10">
-        <v>1.018120498769984</v>
+        <v>1.028872542938583</v>
       </c>
       <c r="K10">
-        <v>1.02453052597247</v>
+        <v>1.031224466141091</v>
       </c>
       <c r="L10">
-        <v>1.002868210690876</v>
+        <v>1.047700031938739</v>
       </c>
       <c r="M10">
-        <v>1.005747146148313</v>
+        <v>1.051794601335236</v>
       </c>
       <c r="N10">
-        <v>1.010108181360712</v>
+        <v>1.013692680193411</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.986789673491858</v>
+        <v>1.021947054193287</v>
       </c>
       <c r="D11">
-        <v>1.008464691202481</v>
+        <v>1.027389163779307</v>
       </c>
       <c r="E11">
-        <v>0.9844402884711608</v>
+        <v>1.043499631646111</v>
       </c>
       <c r="F11">
-        <v>0.9871977188128621</v>
+        <v>1.047575172746192</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039976319998561</v>
+        <v>1.032553762219434</v>
       </c>
       <c r="J11">
-        <v>1.016722534539255</v>
+        <v>1.02861062703743</v>
       </c>
       <c r="K11">
-        <v>1.023228722054157</v>
+        <v>1.030988485447699</v>
       </c>
       <c r="L11">
-        <v>0.9996617271368734</v>
+        <v>1.047039153678492</v>
       </c>
       <c r="M11">
-        <v>1.002365174416309</v>
+        <v>1.051099889034188</v>
       </c>
       <c r="N11">
-        <v>1.009648028698181</v>
+        <v>1.013606403663556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9857779576796092</v>
+        <v>1.021761859396075</v>
       </c>
       <c r="D12">
-        <v>1.007758812378118</v>
+        <v>1.027255469959158</v>
       </c>
       <c r="E12">
-        <v>0.9829955427844613</v>
+        <v>1.043208542501455</v>
       </c>
       <c r="F12">
-        <v>0.9856867323250934</v>
+        <v>1.047271675149257</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039664608225943</v>
+        <v>1.032513955961265</v>
       </c>
       <c r="J12">
-        <v>1.016196658813625</v>
+        <v>1.0285132474559</v>
       </c>
       <c r="K12">
-        <v>1.0227388602681</v>
+        <v>1.030900711032375</v>
       </c>
       <c r="L12">
-        <v>0.9984559370170072</v>
+        <v>1.04679374484904</v>
       </c>
       <c r="M12">
-        <v>1.001093387295948</v>
+        <v>1.050841909298435</v>
       </c>
       <c r="N12">
-        <v>1.009474943518353</v>
+        <v>1.01357432574988</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9859954886193627</v>
+        <v>1.021801582665293</v>
       </c>
       <c r="D13">
-        <v>1.007910558009861</v>
+        <v>1.027284147147362</v>
       </c>
       <c r="E13">
-        <v>0.9833062309648901</v>
+        <v>1.043270974187848</v>
       </c>
       <c r="F13">
-        <v>0.9860116709414795</v>
+        <v>1.047336768737832</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039731718343721</v>
+        <v>1.03252250573058</v>
       </c>
       <c r="J13">
-        <v>1.016309764652612</v>
+        <v>1.0285341398711</v>
       </c>
       <c r="K13">
-        <v>1.022844227098344</v>
+        <v>1.030919544387137</v>
       </c>
       <c r="L13">
-        <v>0.9987152657214978</v>
+        <v>1.046846382681573</v>
       </c>
       <c r="M13">
-        <v>1.001366909995582</v>
+        <v>1.050897243787096</v>
       </c>
       <c r="N13">
-        <v>1.009512170300007</v>
+        <v>1.01358120796753</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.986706275855923</v>
+        <v>1.021931745194816</v>
       </c>
       <c r="D14">
-        <v>1.008406492344356</v>
+        <v>1.027378112342732</v>
       </c>
       <c r="E14">
-        <v>0.9843212177305689</v>
+        <v>1.043475566553828</v>
       </c>
       <c r="F14">
-        <v>0.9870731912483215</v>
+        <v>1.04755008207879</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039950664834176</v>
+        <v>1.032550476867945</v>
       </c>
       <c r="J14">
-        <v>1.016679201974091</v>
+        <v>1.028602579489501</v>
       </c>
       <c r="K14">
-        <v>1.023188360195566</v>
+        <v>1.030981232443104</v>
       </c>
       <c r="L14">
-        <v>0.9995623625146695</v>
+        <v>1.047018866667256</v>
       </c>
       <c r="M14">
-        <v>1.002260371269651</v>
+        <v>1.051078562977498</v>
       </c>
       <c r="N14">
-        <v>1.009633766104689</v>
+        <v>1.013603752723112</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.987142718338792</v>
+        <v>1.02201194741284</v>
       </c>
       <c r="D15">
-        <v>1.008711086416742</v>
+        <v>1.027436009101619</v>
       </c>
       <c r="E15">
-        <v>0.984944304068145</v>
+        <v>1.043601645875573</v>
       </c>
       <c r="F15">
-        <v>0.9877248276004384</v>
+        <v>1.047681533957059</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040084845180733</v>
+        <v>1.032567678025217</v>
       </c>
       <c r="J15">
-        <v>1.016905940144119</v>
+        <v>1.028644735186993</v>
       </c>
       <c r="K15">
-        <v>1.02339954773371</v>
+        <v>1.031019224529523</v>
       </c>
       <c r="L15">
-        <v>1.000082303840556</v>
+        <v>1.047125149106818</v>
       </c>
       <c r="M15">
-        <v>1.002808770404389</v>
+        <v>1.051190288625597</v>
       </c>
       <c r="N15">
-        <v>1.009708395775693</v>
+        <v>1.013617639196975</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9896605533295387</v>
+        <v>1.022478830995745</v>
       </c>
       <c r="D16">
-        <v>1.010469416734558</v>
+        <v>1.027773018036881</v>
       </c>
       <c r="E16">
-        <v>0.9885369359207975</v>
+        <v>1.044335836948715</v>
       </c>
       <c r="F16">
-        <v>0.9914818247687457</v>
+        <v>1.048446984551252</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040854976601927</v>
+        <v>1.032667295130682</v>
       </c>
       <c r="J16">
-        <v>1.018212365633991</v>
+        <v>1.028889912432323</v>
       </c>
       <c r="K16">
-        <v>1.024616050739537</v>
+        <v>1.031240110423455</v>
       </c>
       <c r="L16">
-        <v>1.003078993983247</v>
+        <v>1.047743902207934</v>
       </c>
       <c r="M16">
-        <v>1.005969464131052</v>
+        <v>1.051840716571222</v>
       </c>
       <c r="N16">
-        <v>1.010138421733099</v>
+        <v>1.01369840172201</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9912205848308127</v>
+        <v>1.022771756978169</v>
       </c>
       <c r="D17">
-        <v>1.011559812165307</v>
+        <v>1.027984435369163</v>
       </c>
       <c r="E17">
-        <v>0.9907614175473362</v>
+        <v>1.044796688763876</v>
       </c>
       <c r="F17">
-        <v>0.9938078548058026</v>
+        <v>1.048927434852342</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041328640247064</v>
+        <v>1.032729340463503</v>
       </c>
       <c r="J17">
-        <v>1.019020374439691</v>
+        <v>1.029043540070084</v>
       </c>
       <c r="K17">
-        <v>1.025368147025558</v>
+        <v>1.031378450166612</v>
       </c>
       <c r="L17">
-        <v>1.004933395129732</v>
+        <v>1.048132156394381</v>
       </c>
       <c r="M17">
-        <v>1.007925332890432</v>
+        <v>1.052248833326534</v>
       </c>
       <c r="N17">
-        <v>1.010404407078084</v>
+        <v>1.013749006388085</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9921237213474008</v>
+        <v>1.022942637714576</v>
       </c>
       <c r="D18">
-        <v>1.012191390282989</v>
+        <v>1.028107758410826</v>
       </c>
       <c r="E18">
-        <v>0.992048770640012</v>
+        <v>1.045065608901034</v>
       </c>
       <c r="F18">
-        <v>0.9951538943778175</v>
+        <v>1.049207782917381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041601580282782</v>
+        <v>1.032765371011743</v>
       </c>
       <c r="J18">
-        <v>1.019487623188841</v>
+        <v>1.029133088505348</v>
       </c>
       <c r="K18">
-        <v>1.025802951116056</v>
+        <v>1.031459063177375</v>
       </c>
       <c r="L18">
-        <v>1.006006178797803</v>
+        <v>1.048358664331889</v>
       </c>
       <c r="M18">
-        <v>1.009056805533831</v>
+        <v>1.052486924491589</v>
       </c>
       <c r="N18">
-        <v>1.010558225584796</v>
+        <v>1.013778503117496</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9924305288982236</v>
+        <v>1.023000907311585</v>
       </c>
       <c r="D19">
-        <v>1.012405999253602</v>
+        <v>1.028149809501149</v>
       </c>
       <c r="E19">
-        <v>0.992486033627997</v>
+        <v>1.045157322917383</v>
       </c>
       <c r="F19">
-        <v>0.9956110768665769</v>
+        <v>1.049303392960798</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041694084298127</v>
+        <v>1.032777629433131</v>
       </c>
       <c r="J19">
-        <v>1.019646264158742</v>
+        <v>1.029163612008083</v>
       </c>
       <c r="K19">
-        <v>1.025950556931363</v>
+        <v>1.031486536832289</v>
       </c>
       <c r="L19">
-        <v>1.006370493318986</v>
+        <v>1.048435905476727</v>
       </c>
       <c r="M19">
-        <v>1.009441048548166</v>
+        <v>1.052568114829363</v>
       </c>
       <c r="N19">
-        <v>1.010610451369757</v>
+        <v>1.013788557318143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9910539155998309</v>
+        <v>1.022740326509872</v>
       </c>
       <c r="D20">
-        <v>1.011443283478069</v>
+        <v>1.027961751566247</v>
       </c>
       <c r="E20">
-        <v>0.9905238088030481</v>
+        <v>1.04474723203485</v>
       </c>
       <c r="F20">
-        <v>0.9935594075769816</v>
+        <v>1.048875875756895</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041278167293645</v>
+        <v>1.03272270007387</v>
       </c>
       <c r="J20">
-        <v>1.018934103483191</v>
+        <v>1.029027063474409</v>
       </c>
       <c r="K20">
-        <v>1.025287857345891</v>
+        <v>1.031363615704819</v>
       </c>
       <c r="L20">
-        <v>1.004735357648573</v>
+        <v>1.048090495656975</v>
       </c>
       <c r="M20">
-        <v>1.007716460394498</v>
+        <v>1.052205041757885</v>
       </c>
       <c r="N20">
-        <v>1.010376007171435</v>
+        <v>1.013743579064718</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9864972795841713</v>
+        <v>1.021893414574098</v>
       </c>
       <c r="D21">
-        <v>1.008260654151044</v>
+        <v>1.02735044157756</v>
       </c>
       <c r="E21">
-        <v>0.9840228065134781</v>
+        <v>1.043415314366824</v>
       </c>
       <c r="F21">
-        <v>0.9867611023262827</v>
+        <v>1.047487261932784</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039886340831604</v>
+        <v>1.032542246893582</v>
       </c>
       <c r="J21">
-        <v>1.016570596645841</v>
+        <v>1.028582428269706</v>
       </c>
       <c r="K21">
-        <v>1.023087197911111</v>
+        <v>1.030963070171352</v>
       </c>
       <c r="L21">
-        <v>0.9993133283921508</v>
+        <v>1.046968072482889</v>
       </c>
       <c r="M21">
-        <v>1.001997706716367</v>
+        <v>1.051025167139693</v>
       </c>
       <c r="N21">
-        <v>1.009598019653864</v>
+        <v>1.013597114706833</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9835674032545813</v>
+        <v>1.021361135293202</v>
       </c>
       <c r="D22">
-        <v>1.00621760983357</v>
+        <v>1.026966159698461</v>
       </c>
       <c r="E22">
-        <v>0.9798366412074252</v>
+        <v>1.042578898926667</v>
       </c>
       <c r="F22">
-        <v>0.982382772911175</v>
+        <v>1.046615167730862</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038979954958168</v>
+        <v>1.032427356876193</v>
       </c>
       <c r="J22">
-        <v>1.015046175163643</v>
+        <v>1.028302334592856</v>
       </c>
       <c r="K22">
-        <v>1.021666892798462</v>
+        <v>1.030710533586463</v>
       </c>
       <c r="L22">
-        <v>0.9958184075153129</v>
+        <v>1.046262769745224</v>
       </c>
       <c r="M22">
-        <v>0.9983114998291318</v>
+        <v>1.050283722558564</v>
       </c>
       <c r="N22">
-        <v>1.009096299122255</v>
+        <v>1.013504847732656</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9851269255091134</v>
+        <v>1.021643286424583</v>
       </c>
       <c r="D23">
-        <v>1.007304752156833</v>
+        <v>1.02716986734841</v>
       </c>
       <c r="E23">
-        <v>0.9820655355713001</v>
+        <v>1.043022202676787</v>
       </c>
       <c r="F23">
-        <v>0.9847140502722781</v>
+        <v>1.047077388455423</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039463473762809</v>
+        <v>1.032488397762018</v>
       </c>
       <c r="J23">
-        <v>1.015858035503048</v>
+        <v>1.028450867847758</v>
       </c>
       <c r="K23">
-        <v>1.022423384520857</v>
+        <v>1.030844473805337</v>
       </c>
       <c r="L23">
-        <v>0.9976795803897758</v>
+        <v>1.046636625456449</v>
       </c>
       <c r="M23">
-        <v>1.000274537982722</v>
+        <v>1.050676739594675</v>
       </c>
       <c r="N23">
-        <v>1.009363493432206</v>
+        <v>1.013553777063563</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9911292472380153</v>
+        <v>1.022754528517867</v>
       </c>
       <c r="D24">
-        <v>1.011495951447997</v>
+        <v>1.027972001379277</v>
       </c>
       <c r="E24">
-        <v>0.9906312052550235</v>
+        <v>1.04476957905223</v>
       </c>
       <c r="F24">
-        <v>0.9936717031543191</v>
+        <v>1.048899172754091</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041300984157652</v>
+        <v>1.032725701072836</v>
       </c>
       <c r="J24">
-        <v>1.018973098108072</v>
+        <v>1.029034508724148</v>
       </c>
       <c r="K24">
-        <v>1.025324148771789</v>
+        <v>1.03137031900136</v>
       </c>
       <c r="L24">
-        <v>1.004824869569269</v>
+        <v>1.048109320209083</v>
       </c>
       <c r="M24">
-        <v>1.007810869720098</v>
+        <v>1.05222482914794</v>
       </c>
       <c r="N24">
-        <v>1.010388843958845</v>
+        <v>1.013746031500719</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9978292986046922</v>
+        <v>1.024044919542403</v>
       </c>
       <c r="D25">
-        <v>1.01618668359875</v>
+        <v>1.028903097704092</v>
       </c>
       <c r="E25">
-        <v>1.000176092356282</v>
+        <v>1.046801749934501</v>
       </c>
       <c r="F25">
-        <v>1.003650223524057</v>
+        <v>1.051017551000497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043302807108526</v>
+        <v>1.032994821270744</v>
       </c>
       <c r="J25">
-        <v>1.022429936994295</v>
+        <v>1.029709435716261</v>
       </c>
       <c r="K25">
-        <v>1.02853881328389</v>
+        <v>1.031977460918907</v>
       </c>
       <c r="L25">
-        <v>1.012771675332608</v>
+        <v>1.049820100563308</v>
       </c>
       <c r="M25">
-        <v>1.016192137523222</v>
+        <v>1.054023011475923</v>
       </c>
       <c r="N25">
-        <v>1.011526946503896</v>
+        <v>1.013968341782731</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_70/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025074769481775</v>
+        <v>1.002976754185302</v>
       </c>
       <c r="D2">
-        <v>1.029645892457879</v>
+        <v>1.019798520316685</v>
       </c>
       <c r="E2">
-        <v>1.048426207647521</v>
+        <v>1.007504756665521</v>
       </c>
       <c r="F2">
-        <v>1.052710654235002</v>
+        <v>1.011309168879736</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033204400483247</v>
+        <v>1.044799927320284</v>
       </c>
       <c r="J2">
-        <v>1.030245821730994</v>
+        <v>1.02506879412379</v>
       </c>
       <c r="K2">
-        <v>1.032459200633997</v>
+        <v>1.030988752523991</v>
       </c>
       <c r="L2">
-        <v>1.051186085976613</v>
+        <v>1.018860519135701</v>
       </c>
       <c r="M2">
-        <v>1.055458632899228</v>
+        <v>1.022613165708752</v>
       </c>
       <c r="N2">
-        <v>1.014145006689361</v>
+        <v>1.0123959133237</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.02582287612453</v>
+        <v>1.006608204173495</v>
       </c>
       <c r="D3">
-        <v>1.030185288529728</v>
+        <v>1.022350452874014</v>
       </c>
       <c r="E3">
-        <v>1.049607812508344</v>
+        <v>1.012676381167174</v>
       </c>
       <c r="F3">
-        <v>1.053942035605907</v>
+        <v>1.016712256853561</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03335362063743</v>
+        <v>1.045831812860045</v>
       </c>
       <c r="J3">
-        <v>1.030634147218604</v>
+        <v>1.026920329710173</v>
       </c>
       <c r="K3">
-        <v>1.03280750923893</v>
+        <v>1.032705124542208</v>
       </c>
       <c r="L3">
-        <v>1.0521787776471</v>
+        <v>1.023149594467394</v>
       </c>
       <c r="M3">
-        <v>1.056501841028601</v>
+        <v>1.027135675256384</v>
       </c>
       <c r="N3">
-        <v>1.014272898768009</v>
+        <v>1.013005700539404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026307101972126</v>
+        <v>1.008911326709302</v>
       </c>
       <c r="D4">
-        <v>1.030534332644254</v>
+        <v>1.023970440645347</v>
       </c>
       <c r="E4">
-        <v>1.050373368525781</v>
+        <v>1.015958121499472</v>
       </c>
       <c r="F4">
-        <v>1.054739769525442</v>
+        <v>1.020140113127245</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033448805515501</v>
+        <v>1.046474767086311</v>
       </c>
       <c r="J4">
-        <v>1.03088488746025</v>
+        <v>1.028089794471708</v>
       </c>
       <c r="K4">
-        <v>1.033032198492007</v>
+        <v>1.033787921625653</v>
       </c>
       <c r="L4">
-        <v>1.052821519744478</v>
+        <v>1.025867686962047</v>
       </c>
       <c r="M4">
-        <v>1.057177249074028</v>
+        <v>1.030001392732616</v>
       </c>
       <c r="N4">
-        <v>1.014355474647787</v>
+        <v>1.013390886847499</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.02651070513779</v>
+        <v>1.009868723890436</v>
       </c>
       <c r="D5">
-        <v>1.030681073698293</v>
+        <v>1.02464418669225</v>
       </c>
       <c r="E5">
-        <v>1.050695442955047</v>
+        <v>1.017322927398875</v>
       </c>
       <c r="F5">
-        <v>1.055075364121302</v>
+        <v>1.021565499630098</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03348849243943</v>
+        <v>1.046739249266699</v>
       </c>
       <c r="J5">
-        <v>1.030990170258391</v>
+        <v>1.028574763953922</v>
       </c>
       <c r="K5">
-        <v>1.03312649169322</v>
+        <v>1.034236626537013</v>
       </c>
       <c r="L5">
-        <v>1.053091825579523</v>
+        <v>1.026997206692656</v>
       </c>
       <c r="M5">
-        <v>1.057461282410824</v>
+        <v>1.031192178162175</v>
       </c>
       <c r="N5">
-        <v>1.01439014639881</v>
+        <v>1.013550628346023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026544892991989</v>
+        <v>1.010028849193894</v>
       </c>
       <c r="D6">
-        <v>1.030705712291169</v>
+        <v>1.024756889158547</v>
       </c>
       <c r="E6">
-        <v>1.050749534442044</v>
+        <v>1.017551232160146</v>
       </c>
       <c r="F6">
-        <v>1.055131725267197</v>
+        <v>1.021803927308831</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.033495136747623</v>
+        <v>1.046783318989896</v>
       </c>
       <c r="J6">
-        <v>1.031007840146047</v>
+        <v>1.028655806026542</v>
       </c>
       <c r="K6">
-        <v>1.033142314162453</v>
+        <v>1.034311589089376</v>
       </c>
       <c r="L6">
-        <v>1.053137216818687</v>
+        <v>1.027186100931359</v>
       </c>
       <c r="M6">
-        <v>1.057508978246505</v>
+        <v>1.031391313174856</v>
       </c>
       <c r="N6">
-        <v>1.014395965398417</v>
+        <v>1.013577322763155</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026309822393429</v>
+        <v>1.00892416163802</v>
       </c>
       <c r="D7">
-        <v>1.030536293395981</v>
+        <v>1.023979471695317</v>
       </c>
       <c r="E7">
-        <v>1.050377671177439</v>
+        <v>1.015976415584231</v>
       </c>
       <c r="F7">
-        <v>1.054744252863451</v>
+        <v>1.020159219982262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033449337106939</v>
+        <v>1.046478323822343</v>
       </c>
       <c r="J7">
-        <v>1.030886294759884</v>
+        <v>1.028096300655187</v>
       </c>
       <c r="K7">
-        <v>1.033033459096591</v>
+        <v>1.0337939425947</v>
       </c>
       <c r="L7">
-        <v>1.052825131202533</v>
+        <v>1.02588283070895</v>
       </c>
       <c r="M7">
-        <v>1.057181043980434</v>
+        <v>1.030017358211556</v>
       </c>
       <c r="N7">
-        <v>1.014355938103386</v>
+        <v>1.013393029856821</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025327563500636</v>
+        <v>1.00421389072824</v>
       </c>
       <c r="D8">
-        <v>1.029828179041842</v>
+        <v>1.020667554063606</v>
       </c>
       <c r="E8">
-        <v>1.0488253341346</v>
+        <v>1.009266312577079</v>
       </c>
       <c r="F8">
-        <v>1.053126609284014</v>
+        <v>1.013149723886858</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033255113498542</v>
+        <v>1.045153848352503</v>
       </c>
       <c r="J8">
-        <v>1.030377167789422</v>
+        <v>1.025700559145497</v>
       </c>
       <c r="K8">
-        <v>1.032577055339087</v>
+        <v>1.031574662532159</v>
       </c>
       <c r="L8">
-        <v>1.051521487252904</v>
+        <v>1.020322211835375</v>
       </c>
       <c r="M8">
-        <v>1.055811110859174</v>
+        <v>1.024154471805608</v>
       </c>
       <c r="N8">
-        <v>1.014188265247971</v>
+        <v>1.012603972225951</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023597918595111</v>
+        <v>0.9955403924208518</v>
       </c>
       <c r="D9">
-        <v>1.02858060496783</v>
+        <v>1.014582818108941</v>
       </c>
       <c r="E9">
-        <v>1.046097395926719</v>
+        <v>0.9969165769524388</v>
       </c>
       <c r="F9">
-        <v>1.050283358395037</v>
+        <v>1.000243037243889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032902400335583</v>
+        <v>1.042625281454181</v>
       </c>
       <c r="J9">
-        <v>1.029475986473076</v>
+        <v>1.021251619789084</v>
       </c>
       <c r="K9">
-        <v>1.031767577252818</v>
+        <v>1.027443648382186</v>
       </c>
       <c r="L9">
-        <v>1.049227382747422</v>
+        <v>1.01005987942628</v>
       </c>
       <c r="M9">
-        <v>1.053400035362274</v>
+        <v>1.013332172568534</v>
       </c>
       <c r="N9">
-        <v>1.013891449134885</v>
+        <v>1.011138977467976</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022445730546922</v>
+        <v>0.9894833223265115</v>
       </c>
       <c r="D10">
-        <v>1.027749126812908</v>
+        <v>1.010345585225987</v>
       </c>
       <c r="E10">
-        <v>1.04428377154272</v>
+        <v>0.9882841512135043</v>
       </c>
       <c r="F10">
-        <v>1.048392703849908</v>
+        <v>0.9912174893105135</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03266026185233</v>
+        <v>1.040800992231963</v>
       </c>
       <c r="J10">
-        <v>1.028872542938583</v>
+        <v>1.018120498769983</v>
       </c>
       <c r="K10">
-        <v>1.031224466141091</v>
+        <v>1.024530525972469</v>
       </c>
       <c r="L10">
-        <v>1.047700031938739</v>
+        <v>1.002868210690876</v>
       </c>
       <c r="M10">
-        <v>1.051794601335236</v>
+        <v>1.005747146148313</v>
       </c>
       <c r="N10">
-        <v>1.013692680193411</v>
+        <v>1.010108181360712</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021947054193287</v>
+        <v>0.9867896734918578</v>
       </c>
       <c r="D11">
-        <v>1.027389163779307</v>
+        <v>1.008464691202481</v>
       </c>
       <c r="E11">
-        <v>1.043499631646111</v>
+        <v>0.9844402884711605</v>
       </c>
       <c r="F11">
-        <v>1.047575172746192</v>
+        <v>0.9871977188128619</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032553762219434</v>
+        <v>1.039976319998561</v>
       </c>
       <c r="J11">
-        <v>1.02861062703743</v>
+        <v>1.016722534539255</v>
       </c>
       <c r="K11">
-        <v>1.030988485447699</v>
+        <v>1.023228722054157</v>
       </c>
       <c r="L11">
-        <v>1.047039153678492</v>
+        <v>0.9996617271368731</v>
       </c>
       <c r="M11">
-        <v>1.051099889034188</v>
+        <v>1.002365174416309</v>
       </c>
       <c r="N11">
-        <v>1.013606403663556</v>
+        <v>1.009648028698181</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.021761859396075</v>
+        <v>0.985777957679609</v>
       </c>
       <c r="D12">
-        <v>1.027255469959158</v>
+        <v>1.007758812378118</v>
       </c>
       <c r="E12">
-        <v>1.043208542501455</v>
+        <v>0.9829955427844618</v>
       </c>
       <c r="F12">
-        <v>1.047271675149257</v>
+        <v>0.9856867323250936</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032513955961265</v>
+        <v>1.039664608225943</v>
       </c>
       <c r="J12">
-        <v>1.0285132474559</v>
+        <v>1.016196658813625</v>
       </c>
       <c r="K12">
-        <v>1.030900711032375</v>
+        <v>1.0227388602681</v>
       </c>
       <c r="L12">
-        <v>1.04679374484904</v>
+        <v>0.9984559370170074</v>
       </c>
       <c r="M12">
-        <v>1.050841909298435</v>
+        <v>1.001093387295948</v>
       </c>
       <c r="N12">
-        <v>1.01357432574988</v>
+        <v>1.009474943518353</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021801582665293</v>
+        <v>0.9859954886193627</v>
       </c>
       <c r="D13">
-        <v>1.027284147147362</v>
+        <v>1.007910558009862</v>
       </c>
       <c r="E13">
-        <v>1.043270974187848</v>
+        <v>0.9833062309648898</v>
       </c>
       <c r="F13">
-        <v>1.047336768737832</v>
+        <v>0.9860116709414791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03252250573058</v>
+        <v>1.039731718343721</v>
       </c>
       <c r="J13">
-        <v>1.0285341398711</v>
+        <v>1.016309764652612</v>
       </c>
       <c r="K13">
-        <v>1.030919544387137</v>
+        <v>1.022844227098345</v>
       </c>
       <c r="L13">
-        <v>1.046846382681573</v>
+        <v>0.9987152657214974</v>
       </c>
       <c r="M13">
-        <v>1.050897243787096</v>
+        <v>1.001366909995582</v>
       </c>
       <c r="N13">
-        <v>1.01358120796753</v>
+        <v>1.009512170300007</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021931745194816</v>
+        <v>0.9867062758559231</v>
       </c>
       <c r="D14">
-        <v>1.027378112342732</v>
+        <v>1.008406492344356</v>
       </c>
       <c r="E14">
-        <v>1.043475566553828</v>
+        <v>0.9843212177305682</v>
       </c>
       <c r="F14">
-        <v>1.04755008207879</v>
+        <v>0.987073191248321</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032550476867945</v>
+        <v>1.039950664834176</v>
       </c>
       <c r="J14">
-        <v>1.028602579489501</v>
+        <v>1.016679201974091</v>
       </c>
       <c r="K14">
-        <v>1.030981232443104</v>
+        <v>1.023188360195566</v>
       </c>
       <c r="L14">
-        <v>1.047018866667256</v>
+        <v>0.9995623625146689</v>
       </c>
       <c r="M14">
-        <v>1.051078562977498</v>
+        <v>1.002260371269651</v>
       </c>
       <c r="N14">
-        <v>1.013603752723112</v>
+        <v>1.009633766104689</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02201194741284</v>
+        <v>0.9871427183387924</v>
       </c>
       <c r="D15">
-        <v>1.027436009101619</v>
+        <v>1.008711086416742</v>
       </c>
       <c r="E15">
-        <v>1.043601645875573</v>
+        <v>0.9849443040681451</v>
       </c>
       <c r="F15">
-        <v>1.047681533957059</v>
+        <v>0.9877248276004386</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032567678025217</v>
+        <v>1.040084845180733</v>
       </c>
       <c r="J15">
-        <v>1.028644735186993</v>
+        <v>1.01690594014412</v>
       </c>
       <c r="K15">
-        <v>1.031019224529523</v>
+        <v>1.02339954773371</v>
       </c>
       <c r="L15">
-        <v>1.047125149106818</v>
+        <v>1.000082303840557</v>
       </c>
       <c r="M15">
-        <v>1.051190288625597</v>
+        <v>1.002808770404389</v>
       </c>
       <c r="N15">
-        <v>1.013617639196975</v>
+        <v>1.009708395775693</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022478830995745</v>
+        <v>0.9896605533295392</v>
       </c>
       <c r="D16">
-        <v>1.027773018036881</v>
+        <v>1.010469416734558</v>
       </c>
       <c r="E16">
-        <v>1.044335836948715</v>
+        <v>0.9885369359207986</v>
       </c>
       <c r="F16">
-        <v>1.048446984551252</v>
+        <v>0.9914818247687468</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032667295130682</v>
+        <v>1.040854976601928</v>
       </c>
       <c r="J16">
-        <v>1.028889912432323</v>
+        <v>1.018212365633991</v>
       </c>
       <c r="K16">
-        <v>1.031240110423455</v>
+        <v>1.024616050739537</v>
       </c>
       <c r="L16">
-        <v>1.047743902207934</v>
+        <v>1.003078993983248</v>
       </c>
       <c r="M16">
-        <v>1.051840716571222</v>
+        <v>1.005969464131053</v>
       </c>
       <c r="N16">
-        <v>1.01369840172201</v>
+        <v>1.010138421733099</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022771756978169</v>
+        <v>0.9912205848308131</v>
       </c>
       <c r="D17">
-        <v>1.027984435369163</v>
+        <v>1.011559812165307</v>
       </c>
       <c r="E17">
-        <v>1.044796688763876</v>
+        <v>0.9907614175473368</v>
       </c>
       <c r="F17">
-        <v>1.048927434852342</v>
+        <v>0.9938078548058031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032729340463503</v>
+        <v>1.041328640247064</v>
       </c>
       <c r="J17">
-        <v>1.029043540070084</v>
+        <v>1.019020374439692</v>
       </c>
       <c r="K17">
-        <v>1.031378450166612</v>
+        <v>1.025368147025558</v>
       </c>
       <c r="L17">
-        <v>1.048132156394381</v>
+        <v>1.004933395129732</v>
       </c>
       <c r="M17">
-        <v>1.052248833326534</v>
+        <v>1.007925332890433</v>
       </c>
       <c r="N17">
-        <v>1.013749006388085</v>
+        <v>1.010404407078084</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022942637714576</v>
+        <v>0.9921237213474006</v>
       </c>
       <c r="D18">
-        <v>1.028107758410826</v>
+        <v>1.012191390282989</v>
       </c>
       <c r="E18">
-        <v>1.045065608901034</v>
+        <v>0.9920487706400124</v>
       </c>
       <c r="F18">
-        <v>1.049207782917381</v>
+        <v>0.995153894377818</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032765371011743</v>
+        <v>1.041601580282782</v>
       </c>
       <c r="J18">
-        <v>1.029133088505348</v>
+        <v>1.019487623188841</v>
       </c>
       <c r="K18">
-        <v>1.031459063177375</v>
+        <v>1.025802951116055</v>
       </c>
       <c r="L18">
-        <v>1.048358664331889</v>
+        <v>1.006006178797803</v>
       </c>
       <c r="M18">
-        <v>1.052486924491589</v>
+        <v>1.009056805533831</v>
       </c>
       <c r="N18">
-        <v>1.013778503117496</v>
+        <v>1.010558225584796</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023000907311585</v>
+        <v>0.9924305288982234</v>
       </c>
       <c r="D19">
-        <v>1.028149809501149</v>
+        <v>1.012405999253602</v>
       </c>
       <c r="E19">
-        <v>1.045157322917383</v>
+        <v>0.992486033627997</v>
       </c>
       <c r="F19">
-        <v>1.049303392960798</v>
+        <v>0.9956110768665768</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032777629433131</v>
+        <v>1.041694084298127</v>
       </c>
       <c r="J19">
-        <v>1.029163612008083</v>
+        <v>1.019646264158742</v>
       </c>
       <c r="K19">
-        <v>1.031486536832289</v>
+        <v>1.025950556931362</v>
       </c>
       <c r="L19">
-        <v>1.048435905476727</v>
+        <v>1.006370493318986</v>
       </c>
       <c r="M19">
-        <v>1.052568114829363</v>
+        <v>1.009441048548166</v>
       </c>
       <c r="N19">
-        <v>1.013788557318143</v>
+        <v>1.010610451369757</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022740326509872</v>
+        <v>0.9910539155998301</v>
       </c>
       <c r="D20">
-        <v>1.027961751566247</v>
+        <v>1.011443283478068</v>
       </c>
       <c r="E20">
-        <v>1.04474723203485</v>
+        <v>0.9905238088030481</v>
       </c>
       <c r="F20">
-        <v>1.048875875756895</v>
+        <v>0.9935594075769816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03272270007387</v>
+        <v>1.041278167293645</v>
       </c>
       <c r="J20">
-        <v>1.029027063474409</v>
+        <v>1.01893410348319</v>
       </c>
       <c r="K20">
-        <v>1.031363615704819</v>
+        <v>1.025287857345891</v>
       </c>
       <c r="L20">
-        <v>1.048090495656975</v>
+        <v>1.004735357648573</v>
       </c>
       <c r="M20">
-        <v>1.052205041757885</v>
+        <v>1.007716460394498</v>
       </c>
       <c r="N20">
-        <v>1.013743579064718</v>
+        <v>1.010376007171435</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021893414574098</v>
+        <v>0.986497279584171</v>
       </c>
       <c r="D21">
-        <v>1.02735044157756</v>
+        <v>1.008260654151044</v>
       </c>
       <c r="E21">
-        <v>1.043415314366824</v>
+        <v>0.9840228065134782</v>
       </c>
       <c r="F21">
-        <v>1.047487261932784</v>
+        <v>0.9867611023262829</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032542246893582</v>
+        <v>1.039886340831604</v>
       </c>
       <c r="J21">
-        <v>1.028582428269706</v>
+        <v>1.01657059664584</v>
       </c>
       <c r="K21">
-        <v>1.030963070171352</v>
+        <v>1.02308719791111</v>
       </c>
       <c r="L21">
-        <v>1.046968072482889</v>
+        <v>0.9993133283921508</v>
       </c>
       <c r="M21">
-        <v>1.051025167139693</v>
+        <v>1.001997706716367</v>
       </c>
       <c r="N21">
-        <v>1.013597114706833</v>
+        <v>1.009598019653863</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021361135293202</v>
+        <v>0.9835674032545816</v>
       </c>
       <c r="D22">
-        <v>1.026966159698461</v>
+        <v>1.006217609833571</v>
       </c>
       <c r="E22">
-        <v>1.042578898926667</v>
+        <v>0.9798366412074261</v>
       </c>
       <c r="F22">
-        <v>1.046615167730862</v>
+        <v>0.9823827729111759</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.032427356876193</v>
+        <v>1.038979954958168</v>
       </c>
       <c r="J22">
-        <v>1.028302334592856</v>
+        <v>1.015046175163644</v>
       </c>
       <c r="K22">
-        <v>1.030710533586463</v>
+        <v>1.021666892798463</v>
       </c>
       <c r="L22">
-        <v>1.046262769745224</v>
+        <v>0.9958184075153137</v>
       </c>
       <c r="M22">
-        <v>1.050283722558564</v>
+        <v>0.9983114998291326</v>
       </c>
       <c r="N22">
-        <v>1.013504847732656</v>
+        <v>1.009096299122255</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021643286424583</v>
+        <v>0.9851269255091135</v>
       </c>
       <c r="D23">
-        <v>1.02716986734841</v>
+        <v>1.007304752156833</v>
       </c>
       <c r="E23">
-        <v>1.043022202676787</v>
+        <v>0.9820655355712999</v>
       </c>
       <c r="F23">
-        <v>1.047077388455423</v>
+        <v>0.9847140502722778</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032488397762018</v>
+        <v>1.039463473762809</v>
       </c>
       <c r="J23">
-        <v>1.028450867847758</v>
+        <v>1.015858035503048</v>
       </c>
       <c r="K23">
-        <v>1.030844473805337</v>
+        <v>1.022423384520857</v>
       </c>
       <c r="L23">
-        <v>1.046636625456449</v>
+        <v>0.9976795803897757</v>
       </c>
       <c r="M23">
-        <v>1.050676739594675</v>
+        <v>1.000274537982721</v>
       </c>
       <c r="N23">
-        <v>1.013553777063563</v>
+        <v>1.009363493432206</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022754528517867</v>
+        <v>0.9911292472380147</v>
       </c>
       <c r="D24">
-        <v>1.027972001379277</v>
+        <v>1.011495951447996</v>
       </c>
       <c r="E24">
-        <v>1.04476957905223</v>
+        <v>0.9906312052550236</v>
       </c>
       <c r="F24">
-        <v>1.048899172754091</v>
+        <v>0.9936717031543191</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032725701072836</v>
+        <v>1.041300984157651</v>
       </c>
       <c r="J24">
-        <v>1.029034508724148</v>
+        <v>1.018973098108072</v>
       </c>
       <c r="K24">
-        <v>1.03137031900136</v>
+        <v>1.025324148771789</v>
       </c>
       <c r="L24">
-        <v>1.048109320209083</v>
+        <v>1.004824869569269</v>
       </c>
       <c r="M24">
-        <v>1.05222482914794</v>
+        <v>1.007810869720098</v>
       </c>
       <c r="N24">
-        <v>1.013746031500719</v>
+        <v>1.010388843958845</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C25">
-        <v>1.024044919542403</v>
+        <v>0.9978292986046911</v>
       </c>
       <c r="D25">
-        <v>1.028903097704092</v>
+        <v>1.016186683598749</v>
       </c>
       <c r="E25">
-        <v>1.046801749934501</v>
+        <v>1.000176092356281</v>
       </c>
       <c r="F25">
-        <v>1.051017551000497</v>
+        <v>1.003650223524056</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032994821270744</v>
+        <v>1.043302807108525</v>
       </c>
       <c r="J25">
-        <v>1.029709435716261</v>
+        <v>1.022429936994294</v>
       </c>
       <c r="K25">
-        <v>1.031977460918907</v>
+        <v>1.028538813283889</v>
       </c>
       <c r="L25">
-        <v>1.049820100563308</v>
+        <v>1.012771675332608</v>
       </c>
       <c r="M25">
-        <v>1.054023011475923</v>
+        <v>1.016192137523222</v>
       </c>
       <c r="N25">
-        <v>1.013968341782731</v>
+        <v>1.011526946503896</v>
       </c>
     </row>
   </sheetData>
